--- a/mbs-EP-v.1.0.0/Excel Files/flyball_governor/flyball_governor_gravity_spring.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/flyball_governor/flyball_governor_gravity_spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E20C755-D997-4F42-8E38-356074D183E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9721D87-A57F-4E76-804D-9EB0EA2F6DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="1770" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>sj (TRA axis) global</t>
   </si>
   <si>
-    <t>mmks</t>
-  </si>
-  <si>
     <t>Joint Types</t>
   </si>
   <si>
@@ -847,6 +844,9 @@
   </si>
   <si>
     <t>Animation Video</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -1298,6 +1298,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1337,91 +1409,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,15 +1469,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,6 +1484,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1483,63 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,7 +1975,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,22 +1994,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
-      <c r="J2" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="J2" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="81" t="s">
@@ -2022,21 +2022,21 @@
       <c r="E3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="94"/>
-      <c r="O3" s="76"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="87"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -2056,19 +2056,19 @@
       <c r="K4" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="101"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="77"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -2088,19 +2088,19 @@
       <c r="K5" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="101"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="77"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -2120,19 +2120,19 @@
       <c r="K6" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="101"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" s="77"/>
+      <c r="O6" s="101"/>
       <c r="P6" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="61" t="s">
         <v>170</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -2152,19 +2152,19 @@
       <c r="K7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="101"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="45" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="77"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C8" s="82"/>
       <c r="D8" s="51" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>89</v>
@@ -2184,19 +2184,19 @@
       <c r="K8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="101"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="45" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="77"/>
+      <c r="O8" s="101"/>
       <c r="P8" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -2214,19 +2214,19 @@
       <c r="K9" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="101"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="77"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -2236,681 +2236,695 @@
       <c r="K10" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="45" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="77"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="101"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="77"/>
+        <v>137</v>
+      </c>
+      <c r="O11" s="101"/>
       <c r="P11" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="B12" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
       <c r="J12" s="56"/>
       <c r="K12" s="57"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="O12" s="77"/>
+        <v>138</v>
+      </c>
+      <c r="O12" s="101"/>
       <c r="P12" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="J13" s="56"/>
       <c r="K13" s="57"/>
-      <c r="L13" s="101"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="45" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="77"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="66"/>
       <c r="E14" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="J14" s="58"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" s="77"/>
+        <v>139</v>
+      </c>
+      <c r="O14" s="101"/>
       <c r="P14" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="J15" s="93" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="J15" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="101"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="45" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="77"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q15" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="66"/>
       <c r="E16" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
       <c r="J16" s="45" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="101"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="O16" s="77"/>
+        <v>140</v>
+      </c>
+      <c r="O16" s="101"/>
       <c r="P16" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="J17" s="45" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="101"/>
-      <c r="M17" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" s="94"/>
-      <c r="O17" s="77"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="N17" s="87"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="79"/>
+      <c r="B18" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="103"/>
       <c r="D18" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="J18" s="45" t="s">
         <v>98</v>
       </c>
       <c r="K18" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="101"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="O18" s="101"/>
       <c r="P18" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q18" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="66"/>
       <c r="E19" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="J19" s="45" t="s">
         <v>99</v>
       </c>
       <c r="K19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="101"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N19" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="77"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="69"/>
+      <c r="B20" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="93"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="J20" s="45" t="s">
         <v>105</v>
       </c>
       <c r="K20" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="101"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="77"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="49"/>
       <c r="E21" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
       <c r="J21" s="45" t="s">
         <v>100</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="101"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="O21" s="77"/>
+        <v>159</v>
+      </c>
+      <c r="O21" s="101"/>
       <c r="P21" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="85"/>
+      <c r="B22" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="106"/>
       <c r="D22" s="66">
         <v>2</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
       <c r="J22" s="32" t="s">
         <v>111</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N22" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" s="77"/>
+        <v>158</v>
+      </c>
+      <c r="O22" s="101"/>
       <c r="P22" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="66">
         <v>3</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="77"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="101"/>
       <c r="P23" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q24" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="32" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q25" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="Q24" s="62" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="144"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="32" t="s">
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="Q25" s="62" t="s">
+      <c r="Q26" s="62" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="32" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="62" t="s">
+      <c r="Q27" s="62" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="144"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="32" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q28" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q27" s="62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="144"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="32" t="s">
+      <c r="Q29" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="Q28" s="62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="62" t="s">
+      <c r="Q30" s="62" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="32" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="Q30" s="62" t="s">
+      <c r="Q31" s="62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="70"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="32" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="Q31" s="62" t="s">
+      <c r="Q32" s="62" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="70"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="32" t="s">
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="Q32" s="62" t="s">
+      <c r="Q33" s="62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="70"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="32" t="s">
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="62" t="s">
+      <c r="Q34" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="70"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="32" t="s">
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q34" s="62" t="s">
+      <c r="Q35" s="62" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="70"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q35" s="62" t="s">
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="94"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="32" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="70"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="32" t="s">
+      <c r="Q36" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="Q36" s="62" t="s">
+      <c r="Q37" s="62" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="70"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="32" t="s">
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="97"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="Q37" s="62" t="s">
+      <c r="Q38" s="62" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="73"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q38" s="62" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
       <c r="P39" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q39" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
     <mergeCell ref="E22:E29"/>
     <mergeCell ref="F22:H29"/>
     <mergeCell ref="J2:Q2"/>
@@ -2927,20 +2941,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2972,8 +2972,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="80" t="s">
         <v>30</v>
       </c>
@@ -3021,23 +3021,23 @@
       <c r="AK1" s="80"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="105" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105" t="s">
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105" t="s">
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="80" t="s">
         <v>33</v>
       </c>
@@ -3048,27 +3048,27 @@
       </c>
       <c r="P2" s="80"/>
       <c r="Q2" s="80"/>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="105" t="s">
+      <c r="S2" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
       <c r="W2" s="80" t="s">
         <v>93</v>
       </c>
       <c r="X2" s="80"/>
       <c r="Y2" s="80"/>
-      <c r="Z2" s="78" t="s">
+      <c r="Z2" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="79"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="103"/>
       <c r="AC2" s="80" t="s">
         <v>91</v>
       </c>
@@ -3137,8 +3137,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="83"/>
-      <c r="S3" s="104"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="111"/>
       <c r="T3" s="16" t="s">
         <v>63</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="64">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="64">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="16">
         <v>-838.57</v>
@@ -3656,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="17">
         <v>838.57280000000003</v>
@@ -6823,6 +6823,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6836,12 +6842,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6873,16 +6873,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6913,11 +6913,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6973,19 +6973,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7010,16 +7010,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="112" t="s">
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7055,22 +7055,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7095,21 +7095,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="106" t="s">
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106" t="s">
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7163,19 +7163,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7200,16 +7200,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="106" t="s">
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7226,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -7268,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="13">
         <v>3</v>
@@ -7303,7 +7303,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="47">
         <v>3</v>
@@ -7351,19 +7351,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7388,16 +7388,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="106" t="s">
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -7434,19 +7434,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7471,16 +7471,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="108" t="s">
+      <c r="F23" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="106" t="s">
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
     </row>
     <row r="24" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7517,22 +7517,22 @@
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
@@ -7550,44 +7550,44 @@
       <c r="E27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="106" t="s">
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106" t="s">
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
@@ -7605,26 +7605,26 @@
       <c r="E31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="113"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="112" t="s">
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="106" t="s">
+      <c r="J31" s="119"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106" t="s">
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -7647,14 +7647,14 @@
     </row>
     <row r="33" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -7728,12 +7728,12 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -7805,15 +7805,15 @@
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="111"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="123"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>6</v>
@@ -7833,11 +7833,11 @@
       <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="106" t="s">
+      <c r="E43" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7904,21 +7904,6 @@
     <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="F23:H23"/>
@@ -7935,6 +7920,21 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7956,7 +7956,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7970,18 +7970,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -7999,11 +7999,11 @@
       <c r="E2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
       <c r="I2" s="25" t="s">
         <v>50</v>
       </c>
@@ -8033,7 +8033,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:L11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8056,42 +8056,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="132" t="s">
         <v>116</v>
       </c>
@@ -8100,14 +8100,14 @@
       <c r="Q2" s="133"/>
       <c r="R2" s="133"/>
       <c r="S2" s="134"/>
-      <c r="V2" s="120" t="s">
+      <c r="V2" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -8125,18 +8125,18 @@
       <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="125" t="s">
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>114</v>
@@ -8153,16 +8153,16 @@
       <c r="Q3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="124" t="s">
+      <c r="R3" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="124"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
+      <c r="S3" s="143"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
@@ -8204,12 +8204,12 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
@@ -8253,76 +8253,76 @@
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="139"/>
     </row>
     <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
     </row>
     <row r="8" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="128" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
     </row>
     <row r="9" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
@@ -8340,16 +8340,16 @@
       <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="125" t="s">
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
       <c r="L9" s="40" t="s">
         <v>115</v>
       </c>
@@ -8365,16 +8365,16 @@
       <c r="P9" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="121" t="s">
+      <c r="Q9" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="123"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
+      <c r="R9" s="142"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
@@ -8390,12 +8390,12 @@
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
       <c r="M10" s="26"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
@@ -8410,51 +8410,51 @@
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
       <c r="L11" s="47"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q12" s="47"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
     </row>
     <row r="14" spans="1:27" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
@@ -8472,11 +8472,11 @@
       <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
       <c r="I14" s="40" t="s">
         <v>75</v>
       </c>
@@ -8540,20 +8540,20 @@
       <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
+      <c r="A17" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -8576,13 +8576,13 @@
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="114"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="33" t="s">
         <v>161</v>
-      </c>
-      <c r="J18" s="103"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="33" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -8632,15 +8632,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="V2:AA13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="R3:S3"/>
@@ -8652,6 +8643,15 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="A7:R7"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8674,104 +8674,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="F1" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="98"/>
-      <c r="I1" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
+      <c r="A1" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="F1" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="85"/>
+      <c r="I1" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="120" t="s">
-        <v>240</v>
-      </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
+        <v>134</v>
+      </c>
+      <c r="I2" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="F3" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
+        <v>166</v>
+      </c>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
       <c r="F4" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
+        <v>167</v>
+      </c>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="F5" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="F6" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
+        <v>171</v>
+      </c>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
@@ -8779,10 +8779,10 @@
       <c r="C7" s="60"/>
       <c r="E7" s="39"/>
       <c r="F7" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -8791,10 +8791,10 @@
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8803,10 +8803,10 @@
       <c r="C9" s="60"/>
       <c r="E9" s="39"/>
       <c r="F9" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="39"/>
     </row>
@@ -8815,10 +8815,10 @@
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="F10" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8826,10 +8826,10 @@
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="F11" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8837,10 +8837,10 @@
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
       <c r="F12" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8848,10 +8848,10 @@
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
       <c r="F13" s="60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8859,10 +8859,10 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="F14" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8870,10 +8870,10 @@
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
       <c r="F15" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8881,10 +8881,10 @@
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="F16" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -8892,10 +8892,10 @@
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="F17" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -8903,10 +8903,10 @@
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="F18" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -8914,10 +8914,10 @@
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="F19" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -8925,10 +8925,10 @@
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="F20" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" s="47" t="s">
         <v>73</v>
@@ -8970,10 +8970,10 @@
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="F21" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" s="47"/>
       <c r="M21" s="47" t="s">
@@ -9016,10 +9016,10 @@
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="F22" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -9027,10 +9027,10 @@
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="F23" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -9038,10 +9038,10 @@
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="F24" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M24" s="47" t="s">
         <v>74</v>
@@ -9080,10 +9080,10 @@
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="F25" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M25" s="47" t="s">
         <v>74</v>
@@ -9122,10 +9122,10 @@
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="F26" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -9133,10 +9133,10 @@
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="F27" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -9144,10 +9144,10 @@
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="F28" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -9155,10 +9155,10 @@
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="F29" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -9166,10 +9166,10 @@
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="F30" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -9177,10 +9177,10 @@
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
       <c r="F31" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -9188,10 +9188,10 @@
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
       <c r="F32" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -9199,10 +9199,10 @@
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
       <c r="F33" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9210,10 +9210,10 @@
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
       <c r="F34" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -9221,10 +9221,10 @@
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
       <c r="F35" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G35" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -9232,10 +9232,10 @@
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
       <c r="F36" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -9243,10 +9243,10 @@
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
       <c r="F37" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G37" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -9254,10 +9254,10 @@
       <c r="B38" s="60"/>
       <c r="C38" s="60"/>
       <c r="F38" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
